--- a/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/DigitalPress/ClickChargeZones Lookup.xlsx
+++ b/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/DigitalPress/ClickChargeZones Lookup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="1935" yWindow="-15" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="ClickChargeZones Lookup" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="139">
   <si>
     <t>Calculation Method - ClickChargeZones Lookup</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Canon Print - ADD</t>
-  </si>
-  <si>
     <t>Canon Print – UPDATE</t>
   </si>
   <si>
@@ -85,42 +82,27 @@
     <t>Height</t>
   </si>
   <si>
-    <t>320.15</t>
-  </si>
-  <si>
     <t>640.23</t>
   </si>
   <si>
     <t>Width</t>
   </si>
   <si>
-    <t>152.23</t>
-  </si>
-  <si>
     <t>265.23</t>
   </si>
   <si>
     <t>Maximum Sheet Weight</t>
   </si>
   <si>
-    <t>326.23</t>
-  </si>
-  <si>
     <t>152.13</t>
   </si>
   <si>
     <t>Non Print Image Side Area</t>
   </si>
   <si>
-    <t>2653.01</t>
-  </si>
-  <si>
     <t>12.26</t>
   </si>
   <si>
-    <t>26.15</t>
-  </si>
-  <si>
     <t>13.26</t>
   </si>
   <si>
@@ -130,27 +112,18 @@
     <t>Horizontal</t>
   </si>
   <si>
-    <t>23.25</t>
-  </si>
-  <si>
     <t>23.15</t>
   </si>
   <si>
     <t>Vertical</t>
   </si>
   <si>
-    <t>63.25</t>
-  </si>
-  <si>
     <t>23.23</t>
   </si>
   <si>
     <t>Set up Spoilage Number of sheets</t>
   </si>
   <si>
-    <t>1.26</t>
-  </si>
-  <si>
     <t>8.25</t>
   </si>
   <si>
@@ -169,9 +142,6 @@
     <t>Default Print Sheet Size</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
@@ -259,17 +229,251 @@
     <t>5.00</t>
   </si>
   <si>
-    <t>0.30</t>
-  </si>
-  <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>C700 Digital Press</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>SRA3</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>0.5523</t>
+  </si>
+  <si>
+    <t>0.5015</t>
+  </si>
+  <si>
+    <t>0.4825</t>
+  </si>
+  <si>
+    <t>0.4425</t>
+  </si>
+  <si>
+    <t>0.4156</t>
+  </si>
+  <si>
+    <t>0.3912</t>
+  </si>
+  <si>
+    <t>0.3742</t>
+  </si>
+  <si>
+    <t>0.3465</t>
+  </si>
+  <si>
+    <t>0.3326</t>
+  </si>
+  <si>
+    <t>0.3152</t>
+  </si>
+  <si>
+    <t>0.2842</t>
+  </si>
+  <si>
+    <t>0.2254</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>0.7226</t>
+  </si>
+  <si>
+    <t>0.7152</t>
+  </si>
+  <si>
+    <t>0.6712</t>
+  </si>
+  <si>
+    <t>0.6842</t>
+  </si>
+  <si>
+    <t>0.6632</t>
+  </si>
+  <si>
+    <t>0.6425</t>
+  </si>
+  <si>
+    <t>0.6253</t>
+  </si>
+  <si>
+    <t>0.5942</t>
+  </si>
+  <si>
+    <t>0.5826</t>
+  </si>
+  <si>
+    <t>0.5526</t>
+  </si>
+  <si>
+    <t>0.5023</t>
+  </si>
+  <si>
+    <t>1328.57</t>
+  </si>
+  <si>
+    <t>757.14</t>
+  </si>
+  <si>
+    <t>585.71</t>
+  </si>
+  <si>
+    <t>471.43</t>
+  </si>
+  <si>
+    <t>357.14</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>257.14</t>
+  </si>
+  <si>
+    <t>228.57</t>
+  </si>
+  <si>
+    <t>214.29</t>
+  </si>
+  <si>
+    <t>185.71</t>
+  </si>
+  <si>
+    <t>0.6926</t>
+  </si>
+  <si>
+    <t>Formula = ((Cost*Markup)/100)+Cost</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>1001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +573,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -582,15 +793,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -667,6 +881,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -681,7 +896,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -976,40 +1192,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="61.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="41" t="s">
-        <v>63</v>
+      <c r="A1" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D1" s="58"/>
       <c r="E1" s="58"/>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
       <c r="H1" s="59" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I1" s="59"/>
       <c r="J1" s="59"/>
@@ -1026,259 +1242,259 @@
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13" t="s">
+      <c r="C9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="9" t="s">
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="16" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13" t="s">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="C13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13" t="s">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="C14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13" t="s">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="9" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="60" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="60" t="s">
-        <v>37</v>
       </c>
       <c r="D17" s="60"/>
       <c r="E17" s="60"/>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
       <c r="H17" s="61" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -1286,1300 +1502,1305 @@
       <c r="L17" s="61"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="16" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13" t="s">
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="9" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12">
+        <v>4000</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="9" t="s">
+      <c r="C25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" ht="39">
+      <c r="A26" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13" t="s">
+      <c r="C26" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="9" t="s">
+      <c r="D26" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="16" t="s">
+      <c r="E26" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="30">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13">
-        <v>4000</v>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="15"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="15"/>
-    </row>
-    <row r="26" spans="1:12" ht="39">
-      <c r="A26" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="31">
+      <c r="D27" s="10">
         <v>1</v>
       </c>
-      <c r="C27" s="11">
-        <v>250</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="E27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="41">
+        <f t="shared" ref="G27:G38" si="0">((E27*F27)/100)+E27</f>
+        <v>16.568999999999999</v>
+      </c>
+      <c r="H27" s="12">
+        <v>356</v>
+      </c>
+      <c r="I27" s="12">
         <v>1</v>
       </c>
-      <c r="E27" s="12">
-        <v>0.3125</v>
-      </c>
-      <c r="F27" s="12">
-        <v>112.19</v>
-      </c>
-      <c r="G27" s="42">
-        <f t="shared" ref="G27:G38" si="0">((E27*F27)/100)+E27</f>
-        <v>0.66309375000000004</v>
-      </c>
-      <c r="H27" s="13">
-        <v>356</v>
-      </c>
-      <c r="I27" s="13">
-        <v>1</v>
-      </c>
-      <c r="J27" s="43">
+      <c r="J27" s="42">
         <v>1E-4</v>
       </c>
-      <c r="K27" s="43">
+      <c r="K27" s="42">
         <v>1000.12</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="14">
         <f t="shared" ref="L27:L38" si="1">((J27*K27)/100)+J27</f>
         <v>1.10012E-3</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="32"/>
-      <c r="B28" s="31">
+      <c r="A28" s="31"/>
+      <c r="B28" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="41">
+        <f t="shared" si="0"/>
+        <v>10.029999999999999</v>
+      </c>
+      <c r="H28" s="12">
+        <v>2500</v>
+      </c>
+      <c r="I28" s="12">
         <v>2</v>
       </c>
-      <c r="C28" s="11">
-        <v>1500</v>
-      </c>
-      <c r="D28" s="11">
-        <v>1</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="J28" s="43">
         <v>0.21150000000000002</v>
       </c>
-      <c r="F28" s="12">
-        <v>124.12</v>
-      </c>
-      <c r="G28" s="42">
-        <f t="shared" si="0"/>
-        <v>0.47401380000000004</v>
-      </c>
-      <c r="H28" s="13">
-        <v>2500</v>
-      </c>
-      <c r="I28" s="13">
-        <v>2</v>
-      </c>
-      <c r="J28" s="44">
-        <v>0.21150000000000002</v>
-      </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <v>121.22</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="14">
         <f t="shared" si="1"/>
         <v>0.46788030000000008</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="32"/>
-      <c r="B29" s="31">
+      <c r="A29" s="31"/>
+      <c r="B29" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="41">
+        <f t="shared" si="0"/>
+        <v>8.6850000000000005</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1351</v>
+      </c>
+      <c r="I29" s="12">
         <v>3</v>
       </c>
-      <c r="C29" s="11">
-        <v>2500</v>
-      </c>
-      <c r="D29" s="11">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12">
-        <v>0.21150000000000002</v>
-      </c>
-      <c r="F29" s="12">
-        <v>165.26</v>
-      </c>
-      <c r="G29" s="42">
-        <f t="shared" si="0"/>
-        <v>0.56102490000000005</v>
-      </c>
-      <c r="H29" s="13">
-        <v>1351</v>
-      </c>
-      <c r="I29" s="13">
-        <v>3</v>
-      </c>
-      <c r="J29" s="44">
+      <c r="J29" s="43">
         <v>0.92649999999999999</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <v>2.2599999999999998</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="14">
         <f t="shared" si="1"/>
         <v>0.94743889999999997</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="32"/>
-      <c r="B30" s="31">
+      <c r="A30" s="31"/>
+      <c r="B30" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="41">
+        <f t="shared" si="0"/>
+        <v>7.08</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1465</v>
+      </c>
+      <c r="I30" s="12">
         <v>4</v>
       </c>
-      <c r="C30" s="11">
-        <v>5000</v>
-      </c>
-      <c r="D30" s="11">
-        <v>1</v>
-      </c>
-      <c r="E30" s="12">
-        <v>0.21160000000000001</v>
-      </c>
-      <c r="F30" s="12">
-        <v>1.27</v>
-      </c>
-      <c r="G30" s="42">
-        <f t="shared" si="0"/>
-        <v>0.21428732</v>
-      </c>
-      <c r="H30" s="13">
-        <v>1465</v>
-      </c>
-      <c r="I30" s="13">
-        <v>4</v>
-      </c>
-      <c r="J30" s="44">
+      <c r="J30" s="43">
         <v>1.2635000000000001</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="13">
         <v>12.13</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="14">
         <f t="shared" si="1"/>
         <v>1.4167625500000001</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="32"/>
-      <c r="B31" s="31">
+      <c r="A31" s="31"/>
+      <c r="B31" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="41">
+        <f t="shared" si="0"/>
+        <v>5.8184000000000013</v>
+      </c>
+      <c r="H31" s="12">
+        <v>2468</v>
+      </c>
+      <c r="I31" s="12">
         <v>5</v>
       </c>
-      <c r="C31" s="11">
-        <v>10000</v>
-      </c>
-      <c r="D31" s="11">
-        <v>1</v>
-      </c>
-      <c r="E31" s="12">
-        <v>0.2117</v>
-      </c>
-      <c r="F31" s="12">
-        <v>112.18</v>
-      </c>
-      <c r="G31" s="42">
-        <f t="shared" si="0"/>
-        <v>0.44918506000000002</v>
-      </c>
-      <c r="H31" s="13">
-        <v>2468</v>
-      </c>
-      <c r="I31" s="13">
-        <v>5</v>
-      </c>
-      <c r="J31" s="44">
+      <c r="J31" s="43">
         <v>2.1352000000000002</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="13">
         <v>10.23</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="14">
         <f t="shared" si="1"/>
         <v>2.3536309600000003</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="32"/>
-      <c r="B32" s="31">
+      <c r="A32" s="31"/>
+      <c r="B32" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="41">
+        <f t="shared" si="0"/>
+        <v>4.6943999999999999</v>
+      </c>
+      <c r="H32" s="12">
+        <v>12254</v>
+      </c>
+      <c r="I32" s="12">
         <v>6</v>
       </c>
-      <c r="C32" s="11">
-        <v>15000</v>
-      </c>
-      <c r="D32" s="11">
-        <v>1</v>
-      </c>
-      <c r="E32" s="12">
-        <v>0.21180000000000002</v>
-      </c>
-      <c r="F32" s="12">
-        <v>112.11</v>
-      </c>
-      <c r="G32" s="42">
-        <f t="shared" si="0"/>
-        <v>0.44924898000000002</v>
-      </c>
-      <c r="H32" s="13">
-        <v>12254</v>
-      </c>
-      <c r="I32" s="13">
-        <v>6</v>
-      </c>
-      <c r="J32" s="44">
+      <c r="J32" s="43">
         <v>16.235099999999999</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="13">
         <v>12.263999999999999</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="14">
         <f t="shared" si="1"/>
         <v>18.226172664</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="32"/>
-      <c r="B33" s="31">
+      <c r="A33" s="31"/>
+      <c r="B33" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="41">
+        <f t="shared" si="0"/>
+        <v>3.742</v>
+      </c>
+      <c r="H33" s="12">
+        <v>12468</v>
+      </c>
+      <c r="I33" s="12">
         <v>7</v>
       </c>
-      <c r="C33" s="11">
-        <v>20000</v>
-      </c>
-      <c r="D33" s="11">
-        <v>1</v>
-      </c>
-      <c r="E33" s="12">
-        <v>0.23120000000000002</v>
-      </c>
-      <c r="F33" s="12">
-        <v>112.18</v>
-      </c>
-      <c r="G33" s="42">
-        <f t="shared" si="0"/>
-        <v>0.49056016000000002</v>
-      </c>
-      <c r="H33" s="13">
-        <v>12468</v>
-      </c>
-      <c r="I33" s="13">
-        <v>7</v>
-      </c>
-      <c r="J33" s="44">
+      <c r="J33" s="43">
         <v>1.2354000000000001</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="13">
         <v>12342.12</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="14">
         <f t="shared" si="1"/>
         <v>153.70995048</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="32"/>
-      <c r="B34" s="31">
+      <c r="A34" s="31"/>
+      <c r="B34" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="41">
+        <f t="shared" si="0"/>
+        <v>2.7719999999999998</v>
+      </c>
+      <c r="H34" s="12">
+        <v>212456</v>
+      </c>
+      <c r="I34" s="12">
         <v>8</v>
       </c>
-      <c r="C34" s="11">
-        <v>30000</v>
-      </c>
-      <c r="D34" s="11">
-        <v>1</v>
-      </c>
-      <c r="E34" s="12">
-        <v>0.26319999999999999</v>
-      </c>
-      <c r="F34" s="12">
-        <v>112.15</v>
-      </c>
-      <c r="G34" s="42">
-        <f t="shared" si="0"/>
-        <v>0.55837880000000006</v>
-      </c>
-      <c r="H34" s="13">
-        <v>212456</v>
-      </c>
-      <c r="I34" s="13">
-        <v>8</v>
-      </c>
-      <c r="J34" s="44">
+      <c r="J34" s="43">
         <v>12.135199999999999</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="13">
         <v>12.23</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="14">
         <f t="shared" si="1"/>
         <v>13.61933496</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="32"/>
-      <c r="B35" s="31">
+      <c r="A35" s="31"/>
+      <c r="B35" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="41">
+        <f t="shared" si="0"/>
+        <v>2.1619000000000002</v>
+      </c>
+      <c r="H35" s="12">
+        <v>2165</v>
+      </c>
+      <c r="I35" s="12">
         <v>9</v>
       </c>
-      <c r="C35" s="11">
-        <v>800</v>
-      </c>
-      <c r="D35" s="11">
-        <v>1</v>
-      </c>
-      <c r="E35" s="12">
-        <v>0.24580000000000002</v>
-      </c>
-      <c r="F35" s="12">
-        <v>112.18</v>
-      </c>
-      <c r="G35" s="42">
-        <f t="shared" si="0"/>
-        <v>0.52153844000000005</v>
-      </c>
-      <c r="H35" s="13">
-        <v>2165</v>
-      </c>
-      <c r="I35" s="13">
-        <v>9</v>
-      </c>
-      <c r="J35" s="44">
+      <c r="J35" s="43">
         <v>16.2653</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="13">
         <v>1.2350000000000001</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L35" s="14">
         <f t="shared" si="1"/>
         <v>16.466176454999999</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="32"/>
-      <c r="B36" s="31">
+      <c r="A36" s="31"/>
+      <c r="B36" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="41">
+        <f t="shared" si="0"/>
+        <v>1.4183999999999999</v>
+      </c>
+      <c r="H36" s="12">
+        <v>2568</v>
+      </c>
+      <c r="I36" s="12">
         <v>10</v>
       </c>
-      <c r="C36" s="11">
-        <v>900</v>
-      </c>
-      <c r="D36" s="11">
-        <v>1</v>
-      </c>
-      <c r="E36" s="12">
-        <v>0.6532</v>
-      </c>
-      <c r="F36" s="12">
-        <v>112.18</v>
-      </c>
-      <c r="G36" s="42">
-        <f t="shared" si="0"/>
-        <v>1.38595976</v>
-      </c>
-      <c r="H36" s="13">
-        <v>2568</v>
-      </c>
-      <c r="I36" s="13">
-        <v>10</v>
-      </c>
-      <c r="J36" s="44">
+      <c r="J36" s="43">
         <v>124.12350000000001</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="13">
         <v>124.36</v>
       </c>
-      <c r="L36" s="15">
+      <c r="L36" s="14">
         <f t="shared" si="1"/>
         <v>278.4834846</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="32"/>
-      <c r="B37" s="31">
+      <c r="A37" s="31"/>
+      <c r="B37" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="41">
+        <f t="shared" si="0"/>
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="H37" s="12">
+        <v>12458</v>
+      </c>
+      <c r="I37" s="12">
         <v>11</v>
       </c>
-      <c r="C37" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D37" s="11">
-        <v>1</v>
-      </c>
-      <c r="E37" s="12">
-        <v>0.46850000000000003</v>
-      </c>
-      <c r="F37" s="12">
-        <v>112.11</v>
-      </c>
-      <c r="G37" s="42">
-        <f t="shared" si="0"/>
-        <v>0.99373535000000002</v>
-      </c>
-      <c r="H37" s="13">
-        <v>12458</v>
-      </c>
-      <c r="I37" s="13">
-        <v>11</v>
-      </c>
-      <c r="J37" s="44">
+      <c r="J37" s="43">
         <v>12345.1235</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="13">
         <v>0.01</v>
       </c>
-      <c r="L37" s="15">
+      <c r="L37" s="14">
         <f t="shared" si="1"/>
         <v>12346.35801235</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="32"/>
-      <c r="B38" s="31">
+      <c r="A38" s="31"/>
+      <c r="B38" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="41">
+        <f t="shared" si="0"/>
+        <v>0.67619999999999991</v>
+      </c>
+      <c r="H38" s="33"/>
+      <c r="I38" s="12">
         <v>12</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="11">
-        <v>1</v>
-      </c>
-      <c r="E38" s="12">
-        <v>0.75840000000000007</v>
-      </c>
-      <c r="F38" s="12">
-        <v>112.11</v>
-      </c>
-      <c r="G38" s="42">
-        <f t="shared" si="0"/>
-        <v>1.60864224</v>
-      </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="13">
-        <v>12</v>
-      </c>
-      <c r="J38" s="43">
+      <c r="J38" s="42">
         <v>1246.2653</v>
       </c>
-      <c r="K38" s="43">
+      <c r="K38" s="42">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L38" s="14">
         <f t="shared" si="1"/>
         <v>1249.8794693699999</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="39">
-      <c r="A39" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="K39" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="L39" s="29" t="s">
-        <v>59</v>
+      <c r="A39" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" s="28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="31">
+      <c r="A40" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="30">
         <v>1</v>
       </c>
-      <c r="C40" s="11">
-        <v>75</v>
-      </c>
-      <c r="D40" s="11">
+      <c r="C40" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="10">
         <v>1</v>
       </c>
-      <c r="E40" s="45">
-        <v>1E-4</v>
-      </c>
-      <c r="F40" s="46">
+      <c r="E40" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="46">
+        <f t="shared" ref="G40:G51" si="2">((E40*F40)/100)+E40</f>
+        <v>10.322846820000001</v>
+      </c>
+      <c r="H40" s="12">
+        <v>1262</v>
+      </c>
+      <c r="I40" s="12">
+        <v>11</v>
+      </c>
+      <c r="J40" s="13">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="K40" s="13">
         <v>1000.12</v>
       </c>
-      <c r="G40" s="47">
-        <f t="shared" ref="G40:G51" si="2">((E40*F40)/100)+E40</f>
-        <v>1.10012E-3</v>
-      </c>
-      <c r="H40" s="13">
-        <v>1262</v>
-      </c>
-      <c r="I40" s="13">
-        <v>11</v>
-      </c>
-      <c r="J40" s="14">
-        <v>0.92649999999999999</v>
-      </c>
-      <c r="K40" s="14">
-        <v>1000.12</v>
-      </c>
-      <c r="L40" s="15">
+      <c r="L40" s="14">
         <f t="shared" ref="L40:L51" si="3">((J40*K40)/100)+J40</f>
         <v>10.1926118</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="32"/>
-      <c r="B41" s="31">
-        <v>2</v>
-      </c>
-      <c r="C41" s="11">
-        <v>250</v>
-      </c>
-      <c r="D41" s="11">
+      <c r="A41" s="31"/>
+      <c r="B41" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="10">
         <v>1</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="48">
+        <f t="shared" si="2"/>
+        <v>7.1520000000000001</v>
+      </c>
+      <c r="H41" s="12">
+        <v>2154</v>
+      </c>
+      <c r="I41" s="12">
+        <v>12</v>
+      </c>
+      <c r="J41" s="13">
         <v>0.21150000000000002</v>
       </c>
-      <c r="F41" s="12">
+      <c r="K41" s="13">
         <v>121.22</v>
       </c>
-      <c r="G41" s="49">
-        <f t="shared" si="2"/>
-        <v>0.46788030000000008</v>
-      </c>
-      <c r="H41" s="13">
-        <v>2154</v>
-      </c>
-      <c r="I41" s="13">
-        <v>12</v>
-      </c>
-      <c r="J41" s="14">
-        <v>0.21150000000000002</v>
-      </c>
-      <c r="K41" s="14">
-        <v>121.22</v>
-      </c>
-      <c r="L41" s="15">
+      <c r="L41" s="14">
         <f t="shared" si="3"/>
         <v>0.46788030000000008</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="32"/>
-      <c r="B42" s="31">
-        <v>3</v>
-      </c>
-      <c r="C42" s="11">
-        <v>500</v>
-      </c>
-      <c r="D42" s="11">
-        <v>1</v>
-      </c>
-      <c r="E42" s="48">
+      <c r="A42" s="31"/>
+      <c r="B42" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="48">
+        <f t="shared" si="2"/>
+        <v>5.9365516400000002</v>
+      </c>
+      <c r="H42" s="12">
+        <v>22665</v>
+      </c>
+      <c r="I42" s="12">
+        <v>10</v>
+      </c>
+      <c r="J42" s="13">
         <v>0.92649999999999999</v>
       </c>
-      <c r="F42" s="12">
+      <c r="K42" s="13">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G42" s="49">
-        <f t="shared" si="2"/>
-        <v>0.94743889999999997</v>
-      </c>
-      <c r="H42" s="13">
-        <v>22665</v>
-      </c>
-      <c r="I42" s="13">
-        <v>10</v>
-      </c>
-      <c r="J42" s="14">
-        <v>0.92649999999999999</v>
-      </c>
-      <c r="K42" s="14">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="L42" s="15">
+      <c r="L42" s="14">
         <f t="shared" si="3"/>
         <v>0.94743889999999997</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="32"/>
-      <c r="B43" s="31">
-        <v>4</v>
-      </c>
-      <c r="C43" s="11">
-        <v>1500</v>
-      </c>
-      <c r="D43" s="11">
-        <v>1</v>
-      </c>
-      <c r="E43" s="48">
+      <c r="A43" s="31"/>
+      <c r="B43" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="48">
+        <f t="shared" si="2"/>
+        <v>4.6024855200000001</v>
+      </c>
+      <c r="H43" s="12">
+        <v>1256</v>
+      </c>
+      <c r="I43" s="12">
+        <v>9</v>
+      </c>
+      <c r="J43" s="13">
         <v>1.2635000000000001</v>
       </c>
-      <c r="F43" s="12">
+      <c r="K43" s="13">
         <v>12.13</v>
       </c>
-      <c r="G43" s="49">
-        <f t="shared" si="2"/>
-        <v>1.4167625500000001</v>
-      </c>
-      <c r="H43" s="13">
-        <v>1256</v>
-      </c>
-      <c r="I43" s="13">
-        <v>9</v>
-      </c>
-      <c r="J43" s="14">
-        <v>1.2635000000000001</v>
-      </c>
-      <c r="K43" s="14">
-        <v>12.13</v>
-      </c>
-      <c r="L43" s="15">
+      <c r="L43" s="14">
         <f t="shared" si="3"/>
         <v>1.4167625500000001</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="32"/>
-      <c r="B44" s="31">
-        <v>5</v>
-      </c>
-      <c r="C44" s="11">
-        <v>2500</v>
-      </c>
-      <c r="D44" s="11">
-        <v>1</v>
-      </c>
-      <c r="E44" s="48">
+      <c r="A44" s="31"/>
+      <c r="B44" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" s="48">
+        <f t="shared" si="2"/>
+        <v>3.9097240600000003</v>
+      </c>
+      <c r="H44" s="12">
+        <v>212652</v>
+      </c>
+      <c r="I44" s="12">
+        <v>8</v>
+      </c>
+      <c r="J44" s="13">
         <v>2.1352000000000002</v>
       </c>
-      <c r="F44" s="12">
-        <v>10.23</v>
-      </c>
-      <c r="G44" s="49">
-        <f t="shared" si="2"/>
-        <v>2.3536309600000003</v>
-      </c>
-      <c r="H44" s="13">
-        <v>212652</v>
-      </c>
-      <c r="I44" s="13">
-        <v>8</v>
-      </c>
-      <c r="J44" s="14">
-        <v>2.1352000000000002</v>
-      </c>
-      <c r="K44" s="14">
+      <c r="K44" s="13">
         <v>0.01</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L44" s="14">
         <f t="shared" si="3"/>
         <v>2.1354135200000002</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="32"/>
-      <c r="B45" s="31">
-        <v>6</v>
-      </c>
-      <c r="C45" s="11">
-        <v>5000</v>
-      </c>
-      <c r="D45" s="11">
-        <v>1</v>
-      </c>
-      <c r="E45" s="48">
+      <c r="A45" s="31"/>
+      <c r="B45" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="48">
+        <f t="shared" si="2"/>
+        <v>3.0317524799999997</v>
+      </c>
+      <c r="H45" s="12">
+        <v>212</v>
+      </c>
+      <c r="I45" s="12">
+        <v>7</v>
+      </c>
+      <c r="J45" s="13">
         <v>16.235099999999999</v>
       </c>
-      <c r="F45" s="12">
+      <c r="K45" s="13">
         <v>12.263999999999999</v>
       </c>
-      <c r="G45" s="49">
-        <f t="shared" si="2"/>
-        <v>18.226172664</v>
-      </c>
-      <c r="H45" s="13">
-        <v>212</v>
-      </c>
-      <c r="I45" s="13">
-        <v>7</v>
-      </c>
-      <c r="J45" s="14">
-        <v>16.235099999999999</v>
-      </c>
-      <c r="K45" s="14">
-        <v>12.263999999999999</v>
-      </c>
-      <c r="L45" s="15">
+      <c r="L45" s="14">
         <f t="shared" si="3"/>
         <v>18.226172664</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="32"/>
-      <c r="B46" s="31">
-        <v>7</v>
-      </c>
-      <c r="C46" s="11">
-        <v>9999</v>
-      </c>
-      <c r="D46" s="11">
-        <v>1</v>
-      </c>
-      <c r="E46" s="48">
-        <v>1.2354000000000001</v>
-      </c>
-      <c r="F46" s="12">
+      <c r="A46" s="31"/>
+      <c r="B46" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="48">
+        <f t="shared" si="2"/>
+        <v>2.57</v>
+      </c>
+      <c r="H46" s="12">
+        <v>6</v>
+      </c>
+      <c r="I46" s="12">
+        <v>6</v>
+      </c>
+      <c r="J46" s="13">
+        <v>0.21150000000000002</v>
+      </c>
+      <c r="K46" s="13">
         <v>12342.12</v>
       </c>
-      <c r="G46" s="49">
-        <f t="shared" si="2"/>
-        <v>153.70995048</v>
-      </c>
-      <c r="H46" s="13">
-        <v>6</v>
-      </c>
-      <c r="I46" s="13">
-        <v>6</v>
-      </c>
-      <c r="J46" s="14">
-        <v>0.21150000000000002</v>
-      </c>
-      <c r="K46" s="14">
-        <v>12342.12</v>
-      </c>
-      <c r="L46" s="15">
+      <c r="L46" s="14">
         <f t="shared" si="3"/>
         <v>26.315083800000007</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="32"/>
-      <c r="B47" s="31">
-        <v>8</v>
-      </c>
-      <c r="C47" s="11">
-        <v>20000</v>
-      </c>
-      <c r="D47" s="11">
-        <v>1</v>
-      </c>
-      <c r="E47" s="48">
-        <v>12.135199999999999</v>
-      </c>
-      <c r="F47" s="12">
-        <v>12.23</v>
-      </c>
-      <c r="G47" s="49">
+      <c r="A47" s="31"/>
+      <c r="B47" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="48">
         <f t="shared" si="2"/>
-        <v>13.61933496</v>
-      </c>
-      <c r="H47" s="13">
+        <v>2.2331964199999996</v>
+      </c>
+      <c r="H47" s="12">
         <v>545</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="12">
         <v>5</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="13">
         <v>1246.2653</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="13">
         <v>1000.12</v>
       </c>
-      <c r="L47" s="15">
+      <c r="L47" s="14">
         <f t="shared" si="3"/>
         <v>13710.413818360001</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="32"/>
-      <c r="B48" s="31">
-        <v>9</v>
-      </c>
-      <c r="C48" s="11">
-        <v>30000</v>
-      </c>
-      <c r="D48" s="11">
-        <v>1</v>
-      </c>
-      <c r="E48" s="48">
+      <c r="A48" s="31"/>
+      <c r="B48" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="48">
+        <f t="shared" si="2"/>
+        <v>1.9523629399999995</v>
+      </c>
+      <c r="H48" s="12">
+        <v>6545456</v>
+      </c>
+      <c r="I48" s="12">
+        <v>4</v>
+      </c>
+      <c r="J48" s="13">
         <v>16.2653</v>
       </c>
-      <c r="F48" s="12">
-        <v>1.2350000000000001</v>
-      </c>
-      <c r="G48" s="49">
-        <f t="shared" si="2"/>
-        <v>16.466176454999999</v>
-      </c>
-      <c r="H48" s="13">
-        <v>6545456</v>
-      </c>
-      <c r="I48" s="13">
-        <v>4</v>
-      </c>
-      <c r="J48" s="14">
-        <v>16.2653</v>
-      </c>
-      <c r="K48" s="14">
+      <c r="K48" s="13">
         <v>10.23</v>
       </c>
-      <c r="L48" s="15">
+      <c r="L48" s="14">
         <f t="shared" si="3"/>
         <v>17.929240190000002</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="32"/>
-      <c r="B49" s="31">
-        <v>10</v>
-      </c>
-      <c r="C49" s="11">
-        <v>40000</v>
-      </c>
-      <c r="D49" s="11">
-        <v>1</v>
-      </c>
-      <c r="E49" s="48">
-        <v>124.12350000000001</v>
-      </c>
-      <c r="F49" s="12">
+      <c r="A49" s="31"/>
+      <c r="B49" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="48">
+        <f t="shared" si="2"/>
+        <v>1.8310535400000001</v>
+      </c>
+      <c r="H49" s="12">
+        <v>2</v>
+      </c>
+      <c r="I49" s="12">
+        <v>3</v>
+      </c>
+      <c r="J49" s="13">
+        <v>1.2635000000000001</v>
+      </c>
+      <c r="K49" s="13">
         <v>124.36</v>
       </c>
-      <c r="G49" s="49">
-        <f t="shared" si="2"/>
-        <v>278.4834846</v>
-      </c>
-      <c r="H49" s="13">
-        <v>2</v>
-      </c>
-      <c r="I49" s="13">
-        <v>3</v>
-      </c>
-      <c r="J49" s="14">
-        <v>1.2635000000000001</v>
-      </c>
-      <c r="K49" s="14">
-        <v>124.36</v>
-      </c>
-      <c r="L49" s="15">
+      <c r="L49" s="14">
         <f t="shared" si="3"/>
         <v>2.8347886</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="32"/>
-      <c r="B50" s="31">
-        <v>11</v>
-      </c>
-      <c r="C50" s="11">
-        <v>50000</v>
-      </c>
-      <c r="D50" s="11">
-        <v>1</v>
-      </c>
-      <c r="E50" s="48">
+      <c r="A50" s="31"/>
+      <c r="B50" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" s="48">
+        <f t="shared" si="2"/>
+        <v>1.6577999999999999</v>
+      </c>
+      <c r="H50" s="12">
+        <v>2121</v>
+      </c>
+      <c r="I50" s="12">
+        <v>2</v>
+      </c>
+      <c r="J50" s="13">
         <v>12345.1235</v>
       </c>
-      <c r="F50" s="12">
+      <c r="K50" s="13">
         <v>0.01</v>
       </c>
-      <c r="G50" s="49">
-        <f t="shared" si="2"/>
-        <v>12346.35801235</v>
-      </c>
-      <c r="H50" s="13">
-        <v>2121</v>
-      </c>
-      <c r="I50" s="13">
-        <v>2</v>
-      </c>
-      <c r="J50" s="14">
-        <v>12345.1235</v>
-      </c>
-      <c r="K50" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="L50" s="15">
+      <c r="L50" s="14">
         <f t="shared" si="3"/>
         <v>12346.35801235</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A51" s="35"/>
-      <c r="B51" s="36">
-        <v>12</v>
-      </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="38">
+      <c r="A51" s="34"/>
+      <c r="B51" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" s="51">
+        <f t="shared" si="2"/>
+        <v>1.4351213299999999</v>
+      </c>
+      <c r="H51" s="38"/>
+      <c r="I51" s="39">
         <v>1</v>
       </c>
-      <c r="E51" s="50">
+      <c r="J51" s="52">
         <v>1246.2653</v>
       </c>
-      <c r="F51" s="51">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G51" s="52">
-        <f t="shared" si="2"/>
-        <v>1249.8794693699999</v>
-      </c>
-      <c r="H51" s="39"/>
-      <c r="I51" s="40">
-        <v>1</v>
-      </c>
-      <c r="J51" s="53">
-        <v>1246.2653</v>
-      </c>
-      <c r="K51" s="53">
+      <c r="K51" s="52">
         <v>10.23</v>
       </c>
-      <c r="L51" s="54">
+      <c r="L51" s="53">
         <f t="shared" si="3"/>
         <v>1373.7582401899999</v>
       </c>
     </row>
+    <row r="55" spans="1:12">
+      <c r="G55" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="56" spans="1:12">
       <c r="E56" s="57" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F56" s="57"/>
       <c r="G56" s="57"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="E57" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="G57" s="55" t="s">
-        <v>59</v>
+      <c r="E57" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" s="54" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1">
-      <c r="E58" s="12">
+      <c r="E58" s="11">
         <v>0.92649999999999999</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="11">
         <v>1000.12</v>
       </c>
-      <c r="G58" s="51">
+      <c r="G58" s="50">
         <f t="shared" ref="G58:G69" si="4">((E58*F58)/100)+E58</f>
         <v>10.1926118</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" thickBot="1">
-      <c r="E59" s="12">
+      <c r="E59" s="11">
         <v>0.21150000000000002</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="11">
         <v>121.22</v>
       </c>
-      <c r="G59" s="51">
+      <c r="G59" s="50">
         <f t="shared" si="4"/>
         <v>0.46788030000000008</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1">
-      <c r="E60" s="12">
+      <c r="E60" s="11">
         <v>0.92649999999999999</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="11">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G60" s="51">
+      <c r="G60" s="50">
         <f t="shared" si="4"/>
         <v>0.94743889999999997</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1">
-      <c r="E61" s="12">
+      <c r="E61" s="11">
         <v>1.2635000000000001</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="11">
         <v>12.13</v>
       </c>
-      <c r="G61" s="51">
+      <c r="G61" s="50">
         <f t="shared" si="4"/>
         <v>1.4167625500000001</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1">
-      <c r="E62" s="12">
+      <c r="E62" s="11">
         <v>2.1352000000000002</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="11">
         <v>0.01</v>
       </c>
-      <c r="G62" s="51">
+      <c r="G62" s="50">
         <f t="shared" si="4"/>
         <v>2.1354135200000002</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15.75" thickBot="1">
-      <c r="E63" s="12">
+      <c r="E63" s="11">
         <v>16.235099999999999</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="11">
         <v>12.263999999999999</v>
       </c>
-      <c r="G63" s="51">
+      <c r="G63" s="50">
         <f t="shared" si="4"/>
         <v>18.226172664</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1">
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <v>0.21150000000000002</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <v>12342.12</v>
       </c>
-      <c r="G64" s="51">
+      <c r="G64" s="50">
         <f t="shared" si="4"/>
         <v>26.315083800000007</v>
       </c>
     </row>
     <row r="65" spans="5:7" ht="15.75" thickBot="1">
-      <c r="E65" s="12">
+      <c r="E65" s="11">
         <v>1246.2653</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="11">
         <v>1000.12</v>
       </c>
-      <c r="G65" s="51">
+      <c r="G65" s="50">
         <f t="shared" si="4"/>
         <v>13710.413818360001</v>
       </c>
     </row>
     <row r="66" spans="5:7" ht="15.75" thickBot="1">
-      <c r="E66" s="12">
+      <c r="E66" s="11">
         <v>16.2653</v>
       </c>
-      <c r="F66" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G66" s="51">
+      <c r="F66" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" s="50">
         <f t="shared" si="4"/>
         <v>17.929240190000002</v>
       </c>
     </row>
     <row r="67" spans="5:7" ht="15.75" thickBot="1">
-      <c r="E67" s="12">
+      <c r="E67" s="11">
         <v>1.2635000000000001</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="11">
         <v>124.36</v>
       </c>
-      <c r="G67" s="51">
+      <c r="G67" s="50">
         <f t="shared" si="4"/>
         <v>2.8347886</v>
       </c>
     </row>
     <row r="68" spans="5:7" ht="15.75" thickBot="1">
-      <c r="E68" s="12">
+      <c r="E68" s="11">
         <v>12345.1235</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="11">
         <v>0.01</v>
       </c>
-      <c r="G68" s="51">
+      <c r="G68" s="50">
         <f t="shared" si="4"/>
         <v>12346.35801235</v>
       </c>
     </row>
     <row r="69" spans="5:7" ht="15.75" thickBot="1">
-      <c r="E69" s="12">
+      <c r="E69" s="11">
         <v>1246.2653</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="11">
         <v>10.23</v>
       </c>
-      <c r="G69" s="51">
+      <c r="G69" s="50">
         <f t="shared" si="4"/>
         <v>1373.7582401899999</v>
       </c>
@@ -2593,7 +2814,7 @@
     <mergeCell ref="H17:L17"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" operator="equal" sqref="C25 H25 C7 H7">
+    <dataValidation type="list" operator="equal" sqref="C25 H7 C7 H25">
       <formula1>"YES,NO"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2602,9 +2823,12 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" location="'ClickChargeZones Lookup'!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/DigitalPress/ClickChargeZones Lookup.xlsx
+++ b/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/DigitalPress/ClickChargeZones Lookup.xlsx
@@ -232,9 +232,6 @@
     <t>1000</t>
   </si>
   <si>
-    <t>C700 Digital Press</t>
-  </si>
-  <si>
     <t>320.00</t>
   </si>
   <si>
@@ -467,6 +464,9 @@
   </si>
   <si>
     <t>1001</t>
+  </si>
+  <si>
+    <t>CCZL Canon 2142</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="56" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1305,7 +1305,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1325,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -1702,16 +1702,16 @@
         <v>1</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" s="41">
         <f t="shared" ref="G27:G38" si="0">((E27*F27)/100)+E27</f>
@@ -1737,19 +1737,19 @@
     <row r="28" spans="1:12">
       <c r="A28" s="31"/>
       <c r="B28" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G28" s="41">
         <f t="shared" si="0"/>
@@ -1775,19 +1775,19 @@
     <row r="29" spans="1:12">
       <c r="A29" s="31"/>
       <c r="B29" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" s="41">
         <f t="shared" si="0"/>
@@ -1813,19 +1813,19 @@
     <row r="30" spans="1:12">
       <c r="A30" s="31"/>
       <c r="B30" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="41">
         <f t="shared" si="0"/>
@@ -1851,19 +1851,19 @@
     <row r="31" spans="1:12">
       <c r="A31" s="31"/>
       <c r="B31" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="41">
         <f t="shared" si="0"/>
@@ -1889,19 +1889,19 @@
     <row r="32" spans="1:12">
       <c r="A32" s="31"/>
       <c r="B32" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" s="41">
         <f t="shared" si="0"/>
@@ -1927,19 +1927,19 @@
     <row r="33" spans="1:12">
       <c r="A33" s="31"/>
       <c r="B33" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" s="41">
         <f t="shared" si="0"/>
@@ -1965,19 +1965,19 @@
     <row r="34" spans="1:12">
       <c r="A34" s="31"/>
       <c r="B34" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="41">
         <f t="shared" si="0"/>
@@ -2003,19 +2003,19 @@
     <row r="35" spans="1:12">
       <c r="A35" s="31"/>
       <c r="B35" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" s="41">
         <f t="shared" si="0"/>
@@ -2041,19 +2041,19 @@
     <row r="36" spans="1:12">
       <c r="A36" s="31"/>
       <c r="B36" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="41">
         <f t="shared" si="0"/>
@@ -2079,19 +2079,19 @@
     <row r="37" spans="1:12">
       <c r="A37" s="31"/>
       <c r="B37" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G37" s="41">
         <f t="shared" si="0"/>
@@ -2117,17 +2117,17 @@
     <row r="38" spans="1:12">
       <c r="A38" s="31"/>
       <c r="B38" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="32"/>
       <c r="D38" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G38" s="41">
         <f t="shared" si="0"/>
@@ -2192,16 +2192,16 @@
         <v>1</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" s="10">
         <v>1</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G40" s="46">
         <f t="shared" ref="G40:G51" si="2">((E40*F40)/100)+E40</f>
@@ -2227,19 +2227,19 @@
     <row r="41" spans="1:12">
       <c r="A41" s="31"/>
       <c r="B41" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" s="10">
         <v>1</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G41" s="48">
         <f t="shared" si="2"/>
@@ -2265,19 +2265,19 @@
     <row r="42" spans="1:12">
       <c r="A42" s="31"/>
       <c r="B42" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G42" s="48">
         <f t="shared" si="2"/>
@@ -2303,19 +2303,19 @@
     <row r="43" spans="1:12">
       <c r="A43" s="31"/>
       <c r="B43" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G43" s="48">
         <f t="shared" si="2"/>
@@ -2341,19 +2341,19 @@
     <row r="44" spans="1:12">
       <c r="A44" s="31"/>
       <c r="B44" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G44" s="48">
         <f t="shared" si="2"/>
@@ -2379,19 +2379,19 @@
     <row r="45" spans="1:12">
       <c r="A45" s="31"/>
       <c r="B45" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G45" s="48">
         <f t="shared" si="2"/>
@@ -2417,19 +2417,19 @@
     <row r="46" spans="1:12">
       <c r="A46" s="31"/>
       <c r="B46" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G46" s="48">
         <f t="shared" si="2"/>
@@ -2455,19 +2455,19 @@
     <row r="47" spans="1:12">
       <c r="A47" s="31"/>
       <c r="B47" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G47" s="48">
         <f t="shared" si="2"/>
@@ -2493,19 +2493,19 @@
     <row r="48" spans="1:12">
       <c r="A48" s="31"/>
       <c r="B48" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G48" s="48">
         <f t="shared" si="2"/>
@@ -2531,19 +2531,19 @@
     <row r="49" spans="1:12">
       <c r="A49" s="31"/>
       <c r="B49" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G49" s="48">
         <f t="shared" si="2"/>
@@ -2569,19 +2569,19 @@
     <row r="50" spans="1:12">
       <c r="A50" s="31"/>
       <c r="B50" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G50" s="48">
         <f t="shared" si="2"/>
@@ -2607,17 +2607,17 @@
     <row r="51" spans="1:12" ht="15.75" thickBot="1">
       <c r="A51" s="34"/>
       <c r="B51" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" s="36"/>
       <c r="D51" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E51" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G51" s="51">
         <f t="shared" si="2"/>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="G55" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2824,7 +2824,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" location="'ClickChargeZones Lookup'!A1"/>
+    <hyperlink ref="C5" r:id="rId1" location="'ClickChargeZones Lookup'!A1" display="C700 Digital Press"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
